--- a/doc/LogTemplate_Marco_Chiavaroli.xlsx
+++ b/doc/LogTemplate_Marco_Chiavaroli.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\UnivAq\Dispense\Ingegneria del Software\Progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B4F6AB-E025-4596-BB0F-B23930A416FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD71308-8B55-469A-ADA4-5CF4C0F33730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2B34F74-C8DE-4865-973F-B2E22B0619AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2B34F74-C8DE-4865-973F-B2E22B0619AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>When
 (Month/Day)</t>
@@ -170,9 +169,6 @@
     <t>** il lavoro svolto in gruppo non è riportato in questo Log,</t>
   </si>
   <si>
-    <t>ma bensì in quello generale del Team **</t>
-  </si>
-  <si>
     <t>Personal Journal</t>
   </si>
   <si>
@@ -198,6 +194,33 @@
   </si>
   <si>
     <t>C.2</t>
+  </si>
+  <si>
+    <t>Ripasso generale</t>
+  </si>
+  <si>
+    <t>ma in quello generale del Team **</t>
+  </si>
+  <si>
+    <t>Sviluppo codice Viste e Controller Operatore di Seggio</t>
+  </si>
+  <si>
+    <t>Prima bozza di query DB, rivisitata in seguito dal gruppo</t>
+  </si>
+  <si>
+    <t>Coding Votazione Online</t>
+  </si>
+  <si>
+    <t>PROTOTIPO</t>
+  </si>
+  <si>
+    <t>L24</t>
+  </si>
+  <si>
+    <t>State Diagrams</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -215,6 +238,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -271,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -424,6 +448,165 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -431,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -450,10 +633,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -486,9 +710,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C30DCD0-47A3-4C32-A702-BEE5655605B1}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +1044,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
@@ -838,46 +1059,46 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="9" spans="1:7" ht="54.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
@@ -895,33 +1116,33 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="15">
         <v>11</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="16">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="19">
         <v>11</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -936,15 +1157,15 @@
       <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="10">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -959,15 +1180,15 @@
       <c r="F12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -982,15 +1203,15 @@
       <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="19">
         <v>11</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="10">
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1005,15 +1226,15 @@
       <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="19">
         <v>11</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="10">
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1022,21 +1243,21 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="19">
         <v>11</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="10">
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1051,15 +1272,15 @@
       <c r="F16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="19">
         <v>11</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="10">
         <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1074,16 +1295,16 @@
       <c r="F17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="19">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10">
         <v>12</v>
-      </c>
-      <c r="B18" s="8">
-        <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
@@ -1097,16 +1318,16 @@
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="19">
         <v>12</v>
       </c>
-      <c r="B19" s="8">
-        <v>5</v>
+      <c r="B19" s="10">
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
@@ -1120,174 +1341,404 @@
       <c r="F19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="A20" s="19">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="19">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
         <v>11</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B26" s="10">
         <v>22</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>12</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>12</v>
-      </c>
-      <c r="B23" s="8">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>12</v>
-      </c>
-      <c r="B24" s="8">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>1</v>
-      </c>
-      <c r="B25" s="8">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>1</v>
-      </c>
-      <c r="B26" s="21">
-        <v>8</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>49</v>
+      <c r="G26" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="19">
+        <v>12</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>12</v>
+      </c>
+      <c r="B28" s="10">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="4" t="s">
+      <c r="A29" s="19">
+        <v>12</v>
+      </c>
+      <c r="B29" s="10">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>1</v>
+      </c>
+      <c r="B31" s="8">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>2</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>2</v>
+      </c>
+      <c r="B35" s="8">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
+        <v>2</v>
+      </c>
+      <c r="B37" s="12">
+        <v>7</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="14">
+        <v>2</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="4" t="s">
-        <v>40</v>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
